--- a/Final Document/GoterraBudget.xlsx
+++ b/Final Document/GoterraBudget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ENGN4221\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4924185-AEAA-41A8-98E3-ACBD8C04D585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D55B8B03-61EE-44C2-A45B-46ADC593237D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2FD322A-51A1-4757-9CC3-8C33FF74484F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Construction Costs:</t>
   </si>
@@ -83,12 +83,6 @@
     <t xml:space="preserve">Total </t>
   </si>
   <si>
-    <t>Pay Guide - Meat Industry Award 2 010</t>
-  </si>
-  <si>
-    <t>Adult-Meat processing establishment - Full-time &amp; part-time -level 5</t>
-  </si>
-  <si>
     <t>Variable Cost</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>Other Varaible Costs</t>
   </si>
   <si>
-    <t>Sensitar Equipment, PDF of equipment and prices listed in repositry</t>
-  </si>
-  <si>
     <t>Water Tank (1)</t>
   </si>
   <si>
@@ -116,9 +107,6 @@
     <t>20 Foot HQ Container (3)</t>
   </si>
   <si>
-    <t>*** Variabe depending on Goterras Needs</t>
-  </si>
-  <si>
     <t>Labour Costs (4)</t>
   </si>
   <si>
@@ -126,16 +114,87 @@
   </si>
   <si>
     <t>Power Consumption (5)</t>
+  </si>
+  <si>
+    <t>*** Variable depending on Goterras Needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensitar Equipment, PDF of equipment and prices listed in repositry: https://github.com/JessYJY/InsectFarming/blob/master/Communication/Expert/Sensitar/Sensitar%201T%20rendering%20plant%20price.pdf </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pay Guide - Meat Industry Award 2010:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://github.com/JessYJY/InsectFarming/blob/master/Research/meat-industry-award-ma000059-pay-guide.pdf</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Section:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Adult-Meat processing establishment - Full-time &amp; part-time -level 5</t>
+    </r>
+  </si>
+  <si>
+    <t>*** Goterra would be able to provide a better estimate for this, this is currently based on residentila postcodes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -266,10 +325,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -293,8 +353,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -607,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC121DC-4610-4416-82BD-3D767F40E8CA}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,7 +691,7 @@
       </c>
       <c r="B1" s="4"/>
       <c r="D1" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="14"/>
     </row>
@@ -639,7 +703,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -647,13 +711,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="8">
         <v>13000</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E3" s="5">
         <f>21*(1+2)*2</f>
@@ -665,36 +729,39 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="10">
         <v>9000</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E4" s="6">
         <f>((22.15*8)/0.627854)*0.171233</f>
         <v>48.327298384656302</v>
       </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="10">
         <f>(31*9)*21.33</f>
         <v>5951.07</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="10">
@@ -709,7 +776,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="6">
@@ -717,7 +784,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="17" t="s">
         <v>3</v>
       </c>
       <c r="B8" s="6">
@@ -725,7 +792,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="6">
@@ -733,7 +800,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="6">
@@ -741,7 +808,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="6">
@@ -749,7 +816,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="6">
@@ -757,7 +824,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="6">
@@ -766,7 +833,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>12</v>
@@ -774,7 +841,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B15" s="7">
         <v>375</v>
@@ -789,23 +856,23 @@
         <v>153926.07</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -813,34 +880,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>5</v>
       </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="B25" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18">
         <v>6</v>
       </c>
-      <c r="B25" t="s">
-        <v>23</v>
+      <c r="B26" s="18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1" xr:uid="{8AB7BCF5-2FEF-4D2D-B425-569A1B79B9B7}"/>
+    <hyperlink ref="B21" r:id="rId2" xr:uid="{32D6227A-4C0E-4F30-A734-7616D8DE4D23}"/>
+    <hyperlink ref="B25" r:id="rId3" xr:uid="{BA9DF9AB-2528-4209-9C80-F5E790E3CF92}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>